--- a/eq1.xlsx
+++ b/eq1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="230">
   <si>
     <t xml:space="preserve">Название</t>
   </si>
@@ -829,7 +829,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -863,10 +863,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -953,33 +949,33 @@
   </sheetPr>
   <dimension ref="A1:IU166"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W47" activeCellId="0" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="62.4493927125506"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="255" min="23" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="256" style="0" width="8.57085020242915"/>
@@ -16786,7 +16782,7 @@
       <c r="IT55" s="0"/>
       <c r="IU55" s="0"/>
     </row>
-    <row r="56" s="9" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>96</v>
       </c>
@@ -16824,7 +16820,9 @@
       <c r="Q56" s="6" t="n">
         <v>-22750</v>
       </c>
-      <c r="R56" s="6"/>
+      <c r="R56" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="S56" s="8"/>
       <c r="T56" s="6" t="n">
         <v>0</v>
@@ -16832,240 +16830,6 @@
       <c r="U56" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-      <c r="AR56" s="1"/>
-      <c r="AS56" s="1"/>
-      <c r="AT56" s="1"/>
-      <c r="AU56" s="1"/>
-      <c r="AV56" s="1"/>
-      <c r="AW56" s="1"/>
-      <c r="AX56" s="1"/>
-      <c r="AY56" s="1"/>
-      <c r="AZ56" s="1"/>
-      <c r="BA56" s="1"/>
-      <c r="BB56" s="1"/>
-      <c r="BC56" s="1"/>
-      <c r="BD56" s="1"/>
-      <c r="BE56" s="1"/>
-      <c r="BF56" s="1"/>
-      <c r="BG56" s="1"/>
-      <c r="BH56" s="1"/>
-      <c r="BI56" s="1"/>
-      <c r="BJ56" s="1"/>
-      <c r="BK56" s="1"/>
-      <c r="BL56" s="1"/>
-      <c r="BM56" s="1"/>
-      <c r="BN56" s="1"/>
-      <c r="BO56" s="1"/>
-      <c r="BP56" s="1"/>
-      <c r="BQ56" s="1"/>
-      <c r="BR56" s="1"/>
-      <c r="BS56" s="1"/>
-      <c r="BT56" s="1"/>
-      <c r="BU56" s="1"/>
-      <c r="BV56" s="1"/>
-      <c r="BW56" s="1"/>
-      <c r="BX56" s="1"/>
-      <c r="BY56" s="1"/>
-      <c r="BZ56" s="1"/>
-      <c r="CA56" s="1"/>
-      <c r="CB56" s="1"/>
-      <c r="CC56" s="1"/>
-      <c r="CD56" s="1"/>
-      <c r="CE56" s="1"/>
-      <c r="CF56" s="1"/>
-      <c r="CG56" s="1"/>
-      <c r="CH56" s="1"/>
-      <c r="CI56" s="1"/>
-      <c r="CJ56" s="1"/>
-      <c r="CK56" s="1"/>
-      <c r="CL56" s="1"/>
-      <c r="CM56" s="1"/>
-      <c r="CN56" s="1"/>
-      <c r="CO56" s="1"/>
-      <c r="CP56" s="1"/>
-      <c r="CQ56" s="1"/>
-      <c r="CR56" s="1"/>
-      <c r="CS56" s="1"/>
-      <c r="CT56" s="1"/>
-      <c r="CU56" s="1"/>
-      <c r="CV56" s="1"/>
-      <c r="CW56" s="1"/>
-      <c r="CX56" s="1"/>
-      <c r="CY56" s="1"/>
-      <c r="CZ56" s="1"/>
-      <c r="DA56" s="1"/>
-      <c r="DB56" s="1"/>
-      <c r="DC56" s="1"/>
-      <c r="DD56" s="1"/>
-      <c r="DE56" s="1"/>
-      <c r="DF56" s="1"/>
-      <c r="DG56" s="1"/>
-      <c r="DH56" s="1"/>
-      <c r="DI56" s="1"/>
-      <c r="DJ56" s="1"/>
-      <c r="DK56" s="1"/>
-      <c r="DL56" s="1"/>
-      <c r="DM56" s="1"/>
-      <c r="DN56" s="1"/>
-      <c r="DO56" s="1"/>
-      <c r="DP56" s="1"/>
-      <c r="DQ56" s="1"/>
-      <c r="DR56" s="1"/>
-      <c r="DS56" s="1"/>
-      <c r="DT56" s="1"/>
-      <c r="DU56" s="1"/>
-      <c r="DV56" s="1"/>
-      <c r="DW56" s="1"/>
-      <c r="DX56" s="1"/>
-      <c r="DY56" s="1"/>
-      <c r="DZ56" s="1"/>
-      <c r="EA56" s="1"/>
-      <c r="EB56" s="1"/>
-      <c r="EC56" s="1"/>
-      <c r="ED56" s="1"/>
-      <c r="EE56" s="1"/>
-      <c r="EF56" s="1"/>
-      <c r="EG56" s="1"/>
-      <c r="EH56" s="1"/>
-      <c r="EI56" s="1"/>
-      <c r="EJ56" s="1"/>
-      <c r="EK56" s="1"/>
-      <c r="EL56" s="1"/>
-      <c r="EM56" s="1"/>
-      <c r="EN56" s="1"/>
-      <c r="EO56" s="1"/>
-      <c r="EP56" s="1"/>
-      <c r="EQ56" s="1"/>
-      <c r="ER56" s="1"/>
-      <c r="ES56" s="1"/>
-      <c r="ET56" s="1"/>
-      <c r="EU56" s="1"/>
-      <c r="EV56" s="1"/>
-      <c r="EW56" s="1"/>
-      <c r="EX56" s="1"/>
-      <c r="EY56" s="1"/>
-      <c r="EZ56" s="1"/>
-      <c r="FA56" s="1"/>
-      <c r="FB56" s="1"/>
-      <c r="FC56" s="1"/>
-      <c r="FD56" s="1"/>
-      <c r="FE56" s="1"/>
-      <c r="FF56" s="1"/>
-      <c r="FG56" s="1"/>
-      <c r="FH56" s="1"/>
-      <c r="FI56" s="1"/>
-      <c r="FJ56" s="1"/>
-      <c r="FK56" s="1"/>
-      <c r="FL56" s="1"/>
-      <c r="FM56" s="1"/>
-      <c r="FN56" s="1"/>
-      <c r="FO56" s="1"/>
-      <c r="FP56" s="1"/>
-      <c r="FQ56" s="1"/>
-      <c r="FR56" s="1"/>
-      <c r="FS56" s="1"/>
-      <c r="FT56" s="1"/>
-      <c r="FU56" s="1"/>
-      <c r="FV56" s="1"/>
-      <c r="FW56" s="1"/>
-      <c r="FX56" s="1"/>
-      <c r="FY56" s="1"/>
-      <c r="FZ56" s="1"/>
-      <c r="GA56" s="1"/>
-      <c r="GB56" s="1"/>
-      <c r="GC56" s="1"/>
-      <c r="GD56" s="1"/>
-      <c r="GE56" s="1"/>
-      <c r="GF56" s="1"/>
-      <c r="GG56" s="1"/>
-      <c r="GH56" s="1"/>
-      <c r="GI56" s="1"/>
-      <c r="GJ56" s="1"/>
-      <c r="GK56" s="1"/>
-      <c r="GL56" s="1"/>
-      <c r="GM56" s="1"/>
-      <c r="GN56" s="1"/>
-      <c r="GO56" s="1"/>
-      <c r="GP56" s="1"/>
-      <c r="GQ56" s="1"/>
-      <c r="GR56" s="1"/>
-      <c r="GS56" s="1"/>
-      <c r="GT56" s="1"/>
-      <c r="GU56" s="1"/>
-      <c r="GV56" s="1"/>
-      <c r="GW56" s="1"/>
-      <c r="GX56" s="1"/>
-      <c r="GY56" s="1"/>
-      <c r="GZ56" s="1"/>
-      <c r="HA56" s="1"/>
-      <c r="HB56" s="1"/>
-      <c r="HC56" s="1"/>
-      <c r="HD56" s="1"/>
-      <c r="HE56" s="1"/>
-      <c r="HF56" s="1"/>
-      <c r="HG56" s="1"/>
-      <c r="HH56" s="1"/>
-      <c r="HI56" s="1"/>
-      <c r="HJ56" s="1"/>
-      <c r="HK56" s="1"/>
-      <c r="HL56" s="1"/>
-      <c r="HM56" s="1"/>
-      <c r="HN56" s="1"/>
-      <c r="HO56" s="1"/>
-      <c r="HP56" s="1"/>
-      <c r="HQ56" s="1"/>
-      <c r="HR56" s="1"/>
-      <c r="HS56" s="1"/>
-      <c r="HT56" s="1"/>
-      <c r="HU56" s="1"/>
-      <c r="HV56" s="1"/>
-      <c r="HW56" s="1"/>
-      <c r="HX56" s="1"/>
-      <c r="HY56" s="1"/>
-      <c r="HZ56" s="1"/>
-      <c r="IA56" s="1"/>
-      <c r="IB56" s="1"/>
-      <c r="IC56" s="1"/>
-      <c r="ID56" s="1"/>
-      <c r="IE56" s="1"/>
-      <c r="IF56" s="1"/>
-      <c r="IG56" s="1"/>
-      <c r="IH56" s="1"/>
-      <c r="II56" s="1"/>
-      <c r="IJ56" s="1"/>
-      <c r="IK56" s="1"/>
-      <c r="IL56" s="1"/>
-      <c r="IM56" s="1"/>
-      <c r="IN56" s="1"/>
-      <c r="IO56" s="1"/>
-      <c r="IP56" s="1"/>
-      <c r="IQ56" s="1"/>
-      <c r="IR56" s="1"/>
-      <c r="IS56" s="1"/>
-      <c r="IT56" s="1"/>
-      <c r="IU56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
@@ -19383,7 +19147,7 @@
       <c r="V98" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="W98" s="10"/>
+      <c r="W98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
@@ -19440,7 +19204,7 @@
       <c r="V99" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="W99" s="10"/>
+      <c r="W99" s="9"/>
     </row>
     <row r="100" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
@@ -19495,7 +19259,7 @@
       <c r="V100" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="W100" s="10"/>
+      <c r="W100" s="9"/>
     </row>
     <row r="101" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
@@ -19550,7 +19314,7 @@
       <c r="V101" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="W101" s="10"/>
+      <c r="W101" s="9"/>
     </row>
     <row r="102" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
@@ -19607,7 +19371,7 @@
       <c r="V102" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="W102" s="10"/>
+      <c r="W102" s="9"/>
     </row>
     <row r="103" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
@@ -19664,7 +19428,7 @@
       <c r="V103" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="W103" s="10"/>
+      <c r="W103" s="9"/>
     </row>
     <row r="104" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
